--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value182.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value182.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.193691338606443</v>
+        <v>1.37788999080658</v>
       </c>
       <c r="B1">
-        <v>1.523741927257764</v>
+        <v>6.415459632873535</v>
       </c>
       <c r="C1">
-        <v>2.252901241065023</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>3.587452379932252</v>
+        <v>3.689490079879761</v>
       </c>
       <c r="E1">
-        <v>0.608990789977544</v>
+        <v>2.013293504714966</v>
       </c>
     </row>
   </sheetData>
